--- a/shop_emotion/신제품보만 BF1126C_negative.xlsx
+++ b/shop_emotion/신제품보만 BF1126C_negative.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>확률</t>
+          <t>평점</t>
         </is>
       </c>
     </row>
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>59.87759232521057</v>
+        <v>2.006120383739471</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>54.13565933704376</v>
+        <v>2.293217033147812</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>98.81417062133551</v>
+        <v>0.05929146893322468</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>93.64793300628662</v>
+        <v>0.3176033496856689</v>
       </c>
     </row>
     <row r="6">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>65.59659242630005</v>
+        <v>1.720170378684998</v>
       </c>
     </row>
     <row r="7">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>66.98588132858276</v>
+        <v>1.650705933570862</v>
       </c>
     </row>
     <row r="8">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>50.84671080112457</v>
+        <v>2.457664459943771</v>
       </c>
     </row>
     <row r="9">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>80.03111183643341</v>
+        <v>0.9984444081783295</v>
       </c>
     </row>
     <row r="10">
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>91.91133975982666</v>
+        <v>0.404433012008667</v>
       </c>
     </row>
     <row r="11">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>99.70323103480041</v>
+        <v>0.01483844825997949</v>
       </c>
     </row>
     <row r="12">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>60.9992116689682</v>
+        <v>1.95003941655159</v>
       </c>
     </row>
     <row r="13">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>98.44060996547341</v>
+        <v>0.07796950172632933</v>
       </c>
     </row>
     <row r="14">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>92.04977005720139</v>
+        <v>0.3975114971399307</v>
       </c>
     </row>
     <row r="15">
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>99.91349270567298</v>
+        <v>0.004325364716351032</v>
       </c>
     </row>
   </sheetData>
